--- a/ConsolidaUFF/Codigos/Modelo.xlsx
+++ b/ConsolidaUFF/Codigos/Modelo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>EMPENHO</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>NATUREZA</t>
+  </si>
+  <si>
+    <t>MODALIDADE DA LICITAÇÃO</t>
+  </si>
+  <si>
+    <t>NATUREZA DA DESPESA</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,9 +441,11 @@
     <col min="4" max="4" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,6 +463,12 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
